--- a/Шаблон - Таблица проекта для заказчика.xlsx
+++ b/Шаблон - Таблица проекта для заказчика.xlsx
@@ -88,13 +88,13 @@
     <t>Тип задачи:</t>
   </si>
   <si>
-    <t>Основная</t>
-  </si>
-  <si>
     <t>Летающая кнопка на сайте</t>
   </si>
   <si>
-    <t>Дополнительная</t>
+    <t>ТЗ</t>
+  </si>
+  <si>
+    <t>diff(доп.)</t>
   </si>
 </sst>
 </file>
@@ -254,13 +254,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -831,8 +831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -854,16 +854,16 @@
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10" t="s">
+      <c r="C1" s="12"/>
+      <c r="D1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
@@ -928,8 +928,8 @@
       <c r="I3" s="3">
         <v>5000</v>
       </c>
-      <c r="J3" s="11" t="s">
-        <v>24</v>
+      <c r="J3" s="10" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -960,8 +960,8 @@
       <c r="I4" s="3">
         <v>5000</v>
       </c>
-      <c r="J4" s="11" t="s">
-        <v>24</v>
+      <c r="J4" s="10" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -992,8 +992,8 @@
       <c r="I5" s="3">
         <v>5000</v>
       </c>
-      <c r="J5" s="11" t="s">
-        <v>24</v>
+      <c r="J5" s="10" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -1024,8 +1024,8 @@
       <c r="I6" s="3">
         <v>5000</v>
       </c>
-      <c r="J6" s="11" t="s">
-        <v>24</v>
+      <c r="J6" s="10" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -1056,8 +1056,8 @@
       <c r="I7" s="3">
         <v>5000</v>
       </c>
-      <c r="J7" s="11" t="s">
-        <v>24</v>
+      <c r="J7" s="10" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -1088,13 +1088,13 @@
       <c r="I8" s="3">
         <v>5000</v>
       </c>
-      <c r="J8" s="11" t="s">
-        <v>24</v>
+      <c r="J8" s="10" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>11</v>
@@ -1120,7 +1120,7 @@
       <c r="I9" s="3">
         <v>5000</v>
       </c>
-      <c r="J9" s="12" t="s">
+      <c r="J9" s="11" t="s">
         <v>26</v>
       </c>
     </row>
